--- a/attendance_elo_analysis.xlsx
+++ b/attendance_elo_analysis.xlsx
@@ -88,6 +88,196 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>313752</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>190310</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7048500"/>
+          <a:ext cx="4580952" cy="1523810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>199452</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>133156</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4762500" y="6962775"/>
+          <a:ext cx="4580952" cy="1552381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>543596</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>38492</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4086225"/>
+          <a:ext cx="4810796" cy="2810267"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>29264</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>86117</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4848225" y="4133850"/>
+          <a:ext cx="4934639" cy="2810267"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>495792</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9792</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4286250" y="0"/>
+          <a:ext cx="3524742" cy="1914792"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -99,13 +289,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -114,6 +304,44 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="3524742" cy="1914792"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>105293</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38367</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4314825" y="2124075"/>
+          <a:ext cx="3715268" cy="1914792"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -127,259 +355,31 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>600584</xdr:colOff>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>57668</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>9792</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="2095500"/>
-          <a:ext cx="3648584" cy="1914792"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>562467</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>9792</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3743325" y="0"/>
-          <a:ext cx="3524742" cy="1914792"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>114818</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>9792</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 11"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3714750" y="2095500"/>
+      <xdr:rowOff>66942</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2152650"/>
           <a:ext cx="3715268" cy="1914792"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>313752</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>190310</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 13"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="7048500"/>
-          <a:ext cx="4580952" cy="1523810"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>447102</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>56956</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Picture 15"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="133350" y="11649075"/>
-          <a:ext cx="4580952" cy="1552381"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>543596</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>38492</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Picture 16"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="4086225"/>
-          <a:ext cx="4810796" cy="2810267"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>57839</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>28967</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Picture 17"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="8648700"/>
-          <a:ext cx="4934639" cy="2810267"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -656,9 +656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="M1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
